--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value565.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value565.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.438168761471248</v>
+        <v>1.016973376274109</v>
       </c>
       <c r="B1">
-        <v>0.8800525368967685</v>
+        <v>1.357475280761719</v>
       </c>
       <c r="C1">
-        <v>2.749597362614193</v>
+        <v>2.207844495773315</v>
       </c>
       <c r="D1">
-        <v>3.253867644552777</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.585883342334406</v>
+        <v>1.970597267150879</v>
       </c>
     </row>
   </sheetData>
